--- a/data_processed/20250718/BTCUSDVOLSURFACE_REGULARIZED_20250718.xlsx
+++ b/data_processed/20250718/BTCUSDVOLSURFACE_REGULARIZED_20250718.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
